--- a/Unidad04/EjemplosCUBONorthwind.xlsx
+++ b/Unidad04/EjemplosCUBONorthwind.xlsx
@@ -8,20 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\CEPSUNI\CEPSUNI-SQL4-57369-DO-08-12\Unidad04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BF30C7-7477-4694-986B-3A866F4C6100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B50A23-7015-474E-94A6-DFCB643A24EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7D29070F-7EB7-43CF-9EED-E39DAEB57998}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7D29070F-7EB7-43CF-9EED-E39DAEB57998}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplo 01" sheetId="1" r:id="rId1"/>
     <sheet name="Ejemplo 02" sheetId="2" r:id="rId2"/>
+    <sheet name="Ejemplo 03" sheetId="3" r:id="rId3"/>
+    <sheet name="Ejemplo 04" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="SegmentaciónDeDatos_Pais___Cliente">#N/A</definedName>
+    <definedName name="Timeline_DIM_TIEMPO">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="188" r:id="rId3"/>
-    <pivotCache cacheId="219" r:id="rId4"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="13" r:id="rId6"/>
+    <pivotCache cacheId="87" r:id="rId7"/>
+    <pivotCache cacheId="352" r:id="rId8"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
+      <x14:pivotCaches>
+        <pivotCache cacheId="18" r:id="rId9"/>
+      </x14:pivotCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId10"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{A2CB5862-8E78-49c6-8D9D-AF26E26ADB89}">
+      <x15:timelineCachePivotCaches>
+        <pivotCache cacheId="301" r:id="rId11"/>
+      </x15:timelineCachePivotCaches>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
+      <x15:timelineCacheRefs>
+        <x15:timelineCacheRef r:id="rId12"/>
+      </x15:timelineCacheRefs>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -43,13 +74,14 @@
   <metadataTypes count="1">
     <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <metadataStrings count="4">
+  <metadataStrings count="5">
     <s v="EGCC2020 ProyectoNWCubo57369 CUBONorthwind"/>
     <s v="{[DIM TIEMPO].[Año-Semestre].[Semestre].&amp;[1997]&amp;[2]}"/>
     <s v="{[DIM CLIENTE].[Pais].&amp;[Brazil]}"/>
     <s v="{[DIM TIEMPO].[Año].&amp;[1998]}"/>
+    <s v="{[DIM TIEMPO].[Año].&amp;[1996]}"/>
   </metadataStrings>
-  <mdxMetadata count="3">
+  <mdxMetadata count="4">
     <mdx n="0" f="s">
       <ms ns="1" c="0"/>
     </mdx>
@@ -59,8 +91,11 @@
     <mdx n="0" f="s">
       <ms ns="3" c="0"/>
     </mdx>
+    <mdx n="0" f="s">
+      <ms ns="4" c="0"/>
+    </mdx>
   </mdxMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="4">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -70,12 +105,15 @@
     <bk>
       <rc t="1" v="2"/>
     </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>Unidades</t>
   </si>
@@ -171,6 +209,9 @@
   </si>
   <si>
     <t>1998</t>
+  </si>
+  <si>
+    <t>1996</t>
   </si>
 </sst>
 </file>
@@ -653,6 +694,934 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[EjemplosCUBONorthwind.xlsx]Ejemplo 03!TablaDinámica2</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejemplo 03'!$C$6:$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ejemplo 03'!$B$8:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Confections</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Produce</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Beverages</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Seafood</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dairy Products</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ejemplo 03'!$C$8:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E65-4C00-8BAC-3B71EFEE326A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="475140048"/>
+        <c:axId val="475140464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="475140048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475140464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="475140464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475140048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[EjemplosCUBONorthwind.xlsx]Ejemplo 04!TablaDinámica2</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ejemplo 04'!$C$5:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ejemplo 04'!$B$7:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Confections</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dairy Products</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Grains/Cereals</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Beverages</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Seafood</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ejemplo 04'!$C$7:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B492-44FE-A744-DAB7954DA84D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="475140048"/>
+        <c:axId val="475140464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="475140048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475140464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="475140464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475140048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -693,7 +1662,1093 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1232,6 +3287,402 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8377899B-8859-4AB8-86E2-7D8A0AC5AF0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2409825</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Pais Cliente">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8195CCF0-C92D-4532-B5E2-923BEC1D5082}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Pais Cliente"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="723900" y="95250"/>
+              <a:ext cx="6400800" cy="2314575"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-PE" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2400301</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Id Cliente">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264090D2-682C-4E54-A485-0BA2340E2416}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Id Cliente"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7153275" y="95251"/>
+              <a:ext cx="5276850" cy="2305050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-PE" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825ECE96-D5AA-495A-A4E4-0ED9AC551752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Fecha">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B505B8CD-6E9B-401A-B21E-09E90155EA3A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Fecha"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="733424" y="66675"/>
+              <a:ext cx="4048125" cy="1847850"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-PE" sz="1100"/>
+                <a:t>Línea de tiempo: Funciona en Excel 2013 o superior. No mover ni cambiar el tamaño.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Fecha 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A84AB17-6EB5-4709-83AD-99FB82C714F5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Fecha 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4895850" y="85725"/>
+              <a:ext cx="7639050" cy="1828800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-PE" sz="1100"/>
+                <a:t>Línea de tiempo: Funciona en Excel 2013 o superior. No mover ni cambiar el tamaño.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1491,8 +3942,274 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Gustavo Coronel" refreshedDate="44395.462992129629" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3AC404B5-47C3-4D37-858F-CC836BC0D56A}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="6">
+    <cacheField name="[Measures].[Unidades]" caption="Unidades" numFmtId="0" hierarchy="16" level="32767"/>
+    <cacheField name="[DIM PRODUCTO].[Categoria].[Categoria]" caption="Categoria" numFmtId="0" hierarchy="4" level="1">
+      <sharedItems count="5">
+        <s v="[DIM PRODUCTO].[Categoria].&amp;[1]" c="Beverages"/>
+        <s v="[DIM PRODUCTO].[Categoria].&amp;[3]" c="Confections"/>
+        <s v="[DIM PRODUCTO].[Categoria].&amp;[4]" c="Dairy Products"/>
+        <s v="[DIM PRODUCTO].[Categoria].&amp;[7]" c="Produce"/>
+        <s v="[DIM PRODUCTO].[Categoria].&amp;[8]" c="Seafood"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[DIM TIEMPO].[Año].[Año]" caption="Año" numFmtId="0" hierarchy="10" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente]" caption="Pais Cliente" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[DIM CLIENTE].[Pais - Cliente].[Id Cliente]" caption="Id Cliente" numFmtId="0" hierarchy="2" level="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].[Pais]" caption="Pais" propertyName="Pais" numFmtId="0" hierarchy="2" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="19">
+    <cacheHierarchy uniqueName="[DIM CLIENTE].[Id Cliente]" caption="Id Cliente" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM CLIENTE].[Id Cliente].[Todos]" allUniqueName="[DIM CLIENTE].[Id Cliente].[Todos]" dimensionUniqueName="[DIM CLIENTE]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CLIENTE].[Pais]" caption="Pais" attribute="1" defaultMemberUniqueName="[DIM CLIENTE].[Pais].[Todos]" allUniqueName="[DIM CLIENTE].[Pais].[Todos]" dimensionUniqueName="[DIM CLIENTE]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CLIENTE].[Pais - Cliente]" caption="Pais - Cliente" defaultMemberUniqueName="[DIM CLIENTE].[Pais - Cliente].[Todos]" allUniqueName="[DIM CLIENTE].[Pais - Cliente].[Todos]" dimensionUniqueName="[DIM CLIENTE]" displayFolder="" count="3" unbalanced="0">
+      <fieldsUsage count="3">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[DIM EMPLEADO].[Id Empleado]" caption="Id Empleado" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM EMPLEADO].[Id Empleado].[Todos]" allUniqueName="[DIM EMPLEADO].[Id Empleado].[Todos]" dimensionUniqueName="[DIM EMPLEADO]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCTO].[Categoria]" caption="Categoria" attribute="1" defaultMemberUniqueName="[DIM PRODUCTO].[Categoria].[Todos]" allUniqueName="[DIM PRODUCTO].[Categoria].[Todos]" dimensionUniqueName="[DIM PRODUCTO]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[DIM PRODUCTO].[Categoria - Producto]" caption="Categoria - Producto" defaultMemberUniqueName="[DIM PRODUCTO].[Categoria - Producto].[Todos]" allUniqueName="[DIM PRODUCTO].[Categoria - Producto].[Todos]" dimensionUniqueName="[DIM PRODUCTO]" displayFolder="" count="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCTO].[Producto]" caption="Producto" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM PRODUCTO].[Producto].[Todos]" allUniqueName="[DIM PRODUCTO].[Producto].[Todos]" dimensionUniqueName="[DIM PRODUCTO]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PROVEEDOR].[Id Proveedor]" caption="Id Proveedor" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM PROVEEDOR].[Id Proveedor].[Todos]" allUniqueName="[DIM PROVEEDOR].[Id Proveedor].[Todos]" dimensionUniqueName="[DIM PROVEEDOR]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PROVEEDOR].[Pais]" caption="Pais" attribute="1" defaultMemberUniqueName="[DIM PROVEEDOR].[Pais].[Todos]" allUniqueName="[DIM PROVEEDOR].[Pais].[Todos]" dimensionUniqueName="[DIM PROVEEDOR]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PROVEEDOR].[Pais - Proveedor]" caption="Pais - Proveedor" defaultMemberUniqueName="[DIM PROVEEDOR].[Pais - Proveedor].[Todos]" allUniqueName="[DIM PROVEEDOR].[Pais - Proveedor].[Todos]" dimensionUniqueName="[DIM PROVEEDOR]" displayFolder="" count="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Año]" caption="Año" attribute="1" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Año].[Todos]" allUniqueName="[DIM TIEMPO].[Año].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Año-Mes]" caption="Año-Mes" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Año-Mes].[Todos]" allUniqueName="[DIM TIEMPO].[Año-Mes].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="4" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Año-Semestre]" caption="Año-Semestre" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Año-Semestre].[All]" allUniqueName="[DIM TIEMPO].[Año-Semestre].[All]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Fecha]" caption="Fecha" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[DIM TIEMPO].[Fecha].[Todos]" allUniqueName="[DIM TIEMPO].[Fecha].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="2" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Mes]" caption="Mes" attribute="1" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Mes].[Todos]" allUniqueName="[DIM TIEMPO].[Mes].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Semestre]" caption="Semestre" attribute="1" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Semestre].[Todos]" allUniqueName="[DIM TIEMPO].[Semestre].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Unidades]" caption="Unidades" measure="1" displayFolder="" measureGroup="VENTAS FACT" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Precio Venta]" caption="Precio Venta" measure="1" displayFolder="" measureGroup="VENTAS FACT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Monto]" caption="Monto" measure="1" displayFolder="" measureGroup="VENTAS FACT" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="6">
+    <dimension name="DIM CLIENTE" uniqueName="[DIM CLIENTE]" caption="DIM CLIENTE"/>
+    <dimension name="DIM EMPLEADO" uniqueName="[DIM EMPLEADO]" caption="DIM EMPLEADO"/>
+    <dimension name="DIM PRODUCTO" uniqueName="[DIM PRODUCTO]" caption="DIM PRODUCTO"/>
+    <dimension name="DIM PROVEEDOR" uniqueName="[DIM PROVEEDOR]" caption="DIM PROVEEDOR"/>
+    <dimension name="DIM TIEMPO" uniqueName="[DIM TIEMPO]" caption="DIM TIEMPO"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="VENTAS FACT" caption="VENTAS FACT"/>
+  </measureGroups>
+  <maps count="5">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Gustavo Coronel" refreshedDate="44395.479453472224" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D8068379-3630-4DCA-BE06-3405EBAD1D7E}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[Measures].[Unidades]" caption="Unidades" numFmtId="0" hierarchy="16" level="32767"/>
+    <cacheField name="[DIM CLIENTE].[Pais].[Pais]" caption="Pais" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[DIM PRODUCTO].[Categoria].[Categoria]" caption="Categoria" numFmtId="0" hierarchy="4" level="1">
+      <sharedItems count="5">
+        <s v="[DIM PRODUCTO].[Categoria].&amp;[1]" c="Beverages"/>
+        <s v="[DIM PRODUCTO].[Categoria].&amp;[3]" c="Confections"/>
+        <s v="[DIM PRODUCTO].[Categoria].&amp;[4]" c="Dairy Products"/>
+        <s v="[DIM PRODUCTO].[Categoria].&amp;[5]" c="Grains/Cereals"/>
+        <s v="[DIM PRODUCTO].[Categoria].&amp;[8]" c="Seafood"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[DIM TIEMPO].[Año].[Año]" caption="Año" numFmtId="0" hierarchy="10" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="19">
+    <cacheHierarchy uniqueName="[DIM CLIENTE].[Id Cliente]" caption="Id Cliente" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM CLIENTE].[Id Cliente].[Todos]" allUniqueName="[DIM CLIENTE].[Id Cliente].[Todos]" dimensionUniqueName="[DIM CLIENTE]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CLIENTE].[Pais]" caption="Pais" attribute="1" defaultMemberUniqueName="[DIM CLIENTE].[Pais].[Todos]" allUniqueName="[DIM CLIENTE].[Pais].[Todos]" dimensionUniqueName="[DIM CLIENTE]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[DIM CLIENTE].[Pais - Cliente]" caption="Pais - Cliente" defaultMemberUniqueName="[DIM CLIENTE].[Pais - Cliente].[Todos]" allUniqueName="[DIM CLIENTE].[Pais - Cliente].[Todos]" dimensionUniqueName="[DIM CLIENTE]" displayFolder="" count="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM EMPLEADO].[Id Empleado]" caption="Id Empleado" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM EMPLEADO].[Id Empleado].[Todos]" allUniqueName="[DIM EMPLEADO].[Id Empleado].[Todos]" dimensionUniqueName="[DIM EMPLEADO]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCTO].[Categoria]" caption="Categoria" attribute="1" defaultMemberUniqueName="[DIM PRODUCTO].[Categoria].[Todos]" allUniqueName="[DIM PRODUCTO].[Categoria].[Todos]" dimensionUniqueName="[DIM PRODUCTO]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[DIM PRODUCTO].[Categoria - Producto]" caption="Categoria - Producto" defaultMemberUniqueName="[DIM PRODUCTO].[Categoria - Producto].[Todos]" allUniqueName="[DIM PRODUCTO].[Categoria - Producto].[Todos]" dimensionUniqueName="[DIM PRODUCTO]" displayFolder="" count="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCTO].[Producto]" caption="Producto" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM PRODUCTO].[Producto].[Todos]" allUniqueName="[DIM PRODUCTO].[Producto].[Todos]" dimensionUniqueName="[DIM PRODUCTO]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PROVEEDOR].[Id Proveedor]" caption="Id Proveedor" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM PROVEEDOR].[Id Proveedor].[Todos]" allUniqueName="[DIM PROVEEDOR].[Id Proveedor].[Todos]" dimensionUniqueName="[DIM PROVEEDOR]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PROVEEDOR].[Pais]" caption="Pais" attribute="1" defaultMemberUniqueName="[DIM PROVEEDOR].[Pais].[Todos]" allUniqueName="[DIM PROVEEDOR].[Pais].[Todos]" dimensionUniqueName="[DIM PROVEEDOR]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PROVEEDOR].[Pais - Proveedor]" caption="Pais - Proveedor" defaultMemberUniqueName="[DIM PROVEEDOR].[Pais - Proveedor].[Todos]" allUniqueName="[DIM PROVEEDOR].[Pais - Proveedor].[Todos]" dimensionUniqueName="[DIM PROVEEDOR]" displayFolder="" count="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Año]" caption="Año" attribute="1" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Año].[Todos]" allUniqueName="[DIM TIEMPO].[Año].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Año-Mes]" caption="Año-Mes" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Año-Mes].[Todos]" allUniqueName="[DIM TIEMPO].[Año-Mes].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="4" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Año-Semestre]" caption="Año-Semestre" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Año-Semestre].[All]" allUniqueName="[DIM TIEMPO].[Año-Semestre].[All]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Fecha]" caption="Fecha" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[DIM TIEMPO].[Fecha].[Todos]" allUniqueName="[DIM TIEMPO].[Fecha].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="2" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Mes]" caption="Mes" attribute="1" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Mes].[Todos]" allUniqueName="[DIM TIEMPO].[Mes].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Semestre]" caption="Semestre" attribute="1" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Semestre].[Todos]" allUniqueName="[DIM TIEMPO].[Semestre].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Unidades]" caption="Unidades" measure="1" displayFolder="" measureGroup="VENTAS FACT" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Precio Venta]" caption="Precio Venta" measure="1" displayFolder="" measureGroup="VENTAS FACT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Monto]" caption="Monto" measure="1" displayFolder="" measureGroup="VENTAS FACT" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="6">
+    <dimension name="DIM CLIENTE" uniqueName="[DIM CLIENTE]" caption="DIM CLIENTE"/>
+    <dimension name="DIM EMPLEADO" uniqueName="[DIM EMPLEADO]" caption="DIM EMPLEADO"/>
+    <dimension name="DIM PRODUCTO" uniqueName="[DIM PRODUCTO]" caption="DIM PRODUCTO"/>
+    <dimension name="DIM PROVEEDOR" uniqueName="[DIM PROVEEDOR]" caption="DIM PROVEEDOR"/>
+    <dimension name="DIM TIEMPO" uniqueName="[DIM TIEMPO]" caption="DIM TIEMPO"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="VENTAS FACT" caption="VENTAS FACT"/>
+  </measureGroups>
+  <maps count="5">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Gustavo Coronel" refreshedDate="44395.459394560188" backgroundQuery="1" createdVersion="3" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{7B245A26-271B-4831-932B-E08B91BFC486}">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="EGCC2020 ProyectoNWCubo57369 CUBONorthwind"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="19">
+    <cacheHierarchy uniqueName="[DIM CLIENTE].[Id Cliente]" caption="Id Cliente" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM CLIENTE].[Id Cliente].[Todos]" allUniqueName="[DIM CLIENTE].[Id Cliente].[Todos]" dimensionUniqueName="[DIM CLIENTE]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CLIENTE].[Pais]" caption="Pais" attribute="1" defaultMemberUniqueName="[DIM CLIENTE].[Pais].[Todos]" allUniqueName="[DIM CLIENTE].[Pais].[Todos]" dimensionUniqueName="[DIM CLIENTE]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CLIENTE].[Pais - Cliente]" caption="Pais - Cliente" defaultMemberUniqueName="[DIM CLIENTE].[Pais - Cliente].[Todos]" allUniqueName="[DIM CLIENTE].[Pais - Cliente].[Todos]" dimensionUniqueName="[DIM CLIENTE]" displayFolder="" count="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM EMPLEADO].[Id Empleado]" caption="Id Empleado" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM EMPLEADO].[Id Empleado].[Todos]" allUniqueName="[DIM EMPLEADO].[Id Empleado].[Todos]" dimensionUniqueName="[DIM EMPLEADO]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCTO].[Categoria]" caption="Categoria" attribute="1" defaultMemberUniqueName="[DIM PRODUCTO].[Categoria].[Todos]" allUniqueName="[DIM PRODUCTO].[Categoria].[Todos]" dimensionUniqueName="[DIM PRODUCTO]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCTO].[Categoria - Producto]" caption="Categoria - Producto" defaultMemberUniqueName="[DIM PRODUCTO].[Categoria - Producto].[Todos]" allUniqueName="[DIM PRODUCTO].[Categoria - Producto].[Todos]" dimensionUniqueName="[DIM PRODUCTO]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCTO].[Producto]" caption="Producto" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM PRODUCTO].[Producto].[Todos]" allUniqueName="[DIM PRODUCTO].[Producto].[Todos]" dimensionUniqueName="[DIM PRODUCTO]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PROVEEDOR].[Id Proveedor]" caption="Id Proveedor" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM PROVEEDOR].[Id Proveedor].[Todos]" allUniqueName="[DIM PROVEEDOR].[Id Proveedor].[Todos]" dimensionUniqueName="[DIM PROVEEDOR]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PROVEEDOR].[Pais]" caption="Pais" attribute="1" defaultMemberUniqueName="[DIM PROVEEDOR].[Pais].[Todos]" allUniqueName="[DIM PROVEEDOR].[Pais].[Todos]" dimensionUniqueName="[DIM PROVEEDOR]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PROVEEDOR].[Pais - Proveedor]" caption="Pais - Proveedor" defaultMemberUniqueName="[DIM PROVEEDOR].[Pais - Proveedor].[Todos]" allUniqueName="[DIM PROVEEDOR].[Pais - Proveedor].[Todos]" dimensionUniqueName="[DIM PROVEEDOR]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Año]" caption="Año" attribute="1" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Año].[Todos]" allUniqueName="[DIM TIEMPO].[Año].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Año-Mes]" caption="Año-Mes" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Año-Mes].[Todos]" allUniqueName="[DIM TIEMPO].[Año-Mes].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Año-Semestre]" caption="Año-Semestre" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Año-Semestre].[All]" allUniqueName="[DIM TIEMPO].[Año-Semestre].[All]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Fecha]" caption="Fecha" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[DIM TIEMPO].[Fecha].[Todos]" allUniqueName="[DIM TIEMPO].[Fecha].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Mes]" caption="Mes" attribute="1" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Mes].[Todos]" allUniqueName="[DIM TIEMPO].[Mes].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Semestre]" caption="Semestre" attribute="1" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Semestre].[Todos]" allUniqueName="[DIM TIEMPO].[Semestre].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Unidades]" caption="Unidades" measure="1" displayFolder="" measureGroup="VENTAS FACT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Precio Venta]" caption="Precio Venta" measure="1" displayFolder="" measureGroup="VENTAS FACT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Monto]" caption="Monto" measure="1" displayFolder="" measureGroup="VENTAS FACT" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="2072873503" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Gustavo Coronel" refreshedDate="44395.477815393519" backgroundQuery="1" createdVersion="3" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1D9F806C-B2D6-45EB-B482-22EDFA0363E5}">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="EGCC2020 ProyectoNWCubo57369 CUBONorthwind"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="19">
+    <cacheHierarchy uniqueName="[DIM CLIENTE].[Id Cliente]" caption="Id Cliente" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM CLIENTE].[Id Cliente].[Todos]" allUniqueName="[DIM CLIENTE].[Id Cliente].[Todos]" dimensionUniqueName="[DIM CLIENTE]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CLIENTE].[Pais]" caption="Pais" attribute="1" defaultMemberUniqueName="[DIM CLIENTE].[Pais].[Todos]" allUniqueName="[DIM CLIENTE].[Pais].[Todos]" dimensionUniqueName="[DIM CLIENTE]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CLIENTE].[Pais - Cliente]" caption="Pais - Cliente" defaultMemberUniqueName="[DIM CLIENTE].[Pais - Cliente].[Todos]" allUniqueName="[DIM CLIENTE].[Pais - Cliente].[Todos]" dimensionUniqueName="[DIM CLIENTE]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM EMPLEADO].[Id Empleado]" caption="Id Empleado" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM EMPLEADO].[Id Empleado].[Todos]" allUniqueName="[DIM EMPLEADO].[Id Empleado].[Todos]" dimensionUniqueName="[DIM EMPLEADO]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCTO].[Categoria]" caption="Categoria" attribute="1" defaultMemberUniqueName="[DIM PRODUCTO].[Categoria].[Todos]" allUniqueName="[DIM PRODUCTO].[Categoria].[Todos]" dimensionUniqueName="[DIM PRODUCTO]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCTO].[Categoria - Producto]" caption="Categoria - Producto" defaultMemberUniqueName="[DIM PRODUCTO].[Categoria - Producto].[Todos]" allUniqueName="[DIM PRODUCTO].[Categoria - Producto].[Todos]" dimensionUniqueName="[DIM PRODUCTO]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCTO].[Producto]" caption="Producto" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM PRODUCTO].[Producto].[Todos]" allUniqueName="[DIM PRODUCTO].[Producto].[Todos]" dimensionUniqueName="[DIM PRODUCTO]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PROVEEDOR].[Id Proveedor]" caption="Id Proveedor" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM PROVEEDOR].[Id Proveedor].[Todos]" allUniqueName="[DIM PROVEEDOR].[Id Proveedor].[Todos]" dimensionUniqueName="[DIM PROVEEDOR]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PROVEEDOR].[Pais]" caption="Pais" attribute="1" defaultMemberUniqueName="[DIM PROVEEDOR].[Pais].[Todos]" allUniqueName="[DIM PROVEEDOR].[Pais].[Todos]" dimensionUniqueName="[DIM PROVEEDOR]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PROVEEDOR].[Pais - Proveedor]" caption="Pais - Proveedor" defaultMemberUniqueName="[DIM PROVEEDOR].[Pais - Proveedor].[Todos]" allUniqueName="[DIM PROVEEDOR].[Pais - Proveedor].[Todos]" dimensionUniqueName="[DIM PROVEEDOR]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Año]" caption="Año" attribute="1" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Año].[Todos]" allUniqueName="[DIM TIEMPO].[Año].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Año-Mes]" caption="Año-Mes" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Año-Mes].[Todos]" allUniqueName="[DIM TIEMPO].[Año-Mes].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Año-Semestre]" caption="Año-Semestre" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Año-Semestre].[All]" allUniqueName="[DIM TIEMPO].[Año-Semestre].[All]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Fecha]" caption="Fecha" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[DIM TIEMPO].[Fecha].[Todos]" allUniqueName="[DIM TIEMPO].[Fecha].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="2" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Mes]" caption="Mes" attribute="1" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Mes].[Todos]" allUniqueName="[DIM TIEMPO].[Mes].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIEMPO].[Semestre]" caption="Semestre" attribute="1" time="1" defaultMemberUniqueName="[DIM TIEMPO].[Semestre].[Todos]" allUniqueName="[DIM TIEMPO].[Semestre].[Todos]" dimensionUniqueName="[DIM TIEMPO]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Unidades]" caption="Unidades" measure="1" displayFolder="" measureGroup="VENTAS FACT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Precio Venta]" caption="Precio Venta" measure="1" displayFolder="" measureGroup="VENTAS FACT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Monto]" caption="Monto" measure="1" displayFolder="" measureGroup="VENTAS FACT" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="476346209" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{ABF5C744-AB39-4b91-8756-CFA1BBC848D5}">
+      <x15:pivotCacheIdVersion cacheIdSupportedVersion="6" cacheIdCreatedVersion="7"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00A7E0DF-DECA-4A76-8576-9C503B251716}" name="TablaDinámica2" cacheId="188" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00A7E0DF-DECA-4A76-8576-9C503B251716}" name="TablaDinámica2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="B5:D26" firstHeaderRow="2" firstDataRow="2" firstDataCol="2" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1660,7 +4377,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21E94316-5BAB-445A-BB93-8D6FD9EC3980}" name="TablaDinámica2" cacheId="219" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21E94316-5BAB-445A-BB93-8D6FD9EC3980}" name="TablaDinámica2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="B5:C15" firstHeaderRow="2" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1775,6 +4492,599 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{50FC8488-12B1-4965-9BB6-38998FB75E6D}" name="TablaDinámica2" cacheId="87" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
+  <location ref="B6:C13" firstHeaderRow="2" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="10" name="[DIM TIEMPO].[Año].&amp;[1996]" cap="1996"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="19">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <mps count="1">
+        <mp field="5"/>
+      </mps>
+      <members count="1" level="1">
+        <member name="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Finland]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="4"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48286B9C-CE6C-4AB2-817C-4701FB674C60}" name="TablaDinámica2" cacheId="352" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
+  <location ref="B5:C12" firstHeaderRow="2" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="1" name="[DIM CLIENTE].[Pais].&amp;[Brazil]" cap="Brazil"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="19">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="3" type="dateBetween" evalOrder="-1" id="15" name="[DIM TIEMPO].[Fecha]">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="35674"/>
+            <customFilter operator="lessThanOrEqual" val="35703"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="4"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Pais___Cliente" xr10:uid="{FE3EFD7F-2785-48E0-B72E-2BD32695CA34}" sourceName="[DIM CLIENTE].[Pais - Cliente]">
+  <pivotTables>
+    <pivotTable tabId="3" name="TablaDinámica2"/>
+  </pivotTables>
+  <data>
+    <olap pivotCacheId="2072873503">
+      <levels count="3">
+        <level uniqueName="[DIM CLIENTE].[Pais - Cliente].[(All)]" sourceCaption="(All)" count="0"/>
+        <level uniqueName="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente]" sourceCaption="Pais Cliente" count="21">
+          <ranges>
+            <range startItem="0">
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Austria]" c="Austria"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Belgium]" c="Belgium"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Brazil]" c="Brazil"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Canada]" c="Canada"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Denmark]" c="Denmark"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Finland]" c="Finland"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[France]" c="France"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Germany]" c="Germany"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Ireland]" c="Ireland"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Italy]" c="Italy"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Mexico]" c="Mexico"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Norway]" c="Norway"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Poland]" c="Poland"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Portugal]" c="Portugal"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Spain]" c="Spain"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Sweden]" c="Sweden"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Switzerland]" c="Switzerland"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[UK]" c="UK"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[USA]" c="USA"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Venezuela]" c="Venezuela"/>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Argentina]" c="Argentina" nd="1"/>
+            </range>
+          </ranges>
+        </level>
+        <level uniqueName="[DIM CLIENTE].[Pais - Cliente].[Id Cliente]" sourceCaption="Id Cliente" count="91">
+          <ranges>
+            <range startItem="0">
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[ERNSH]" c="Ernst Handel">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Austria]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[PICCO]" c="Piccolo und mehr">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Austria]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[SUPRD]" c="Suprêmes délices">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Belgium]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[COMMI]" c="Comércio Mineiro">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Brazil]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[FAMIA]" c="Familia Arquibaldo">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Brazil]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[HANAR]" c="Hanari Carnes">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Brazil]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[QUEDE]" c="Que Delícia">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Brazil]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[QUEEN]" c="Queen Cozinha">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Brazil]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[RICAR]" c="Ricardo Adocicados">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Brazil]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[TRADH]" c="Tradição Hipermercados">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Brazil]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[WELLI]" c="Wellington Importadora">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Brazil]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[BOTTM]" c="Bottom-Dollar Markets">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Canada]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[MEREP]" c="Mère Paillarde">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Canada]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[SIMOB]" c="Simons bistro">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Denmark]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[VAFFE]" c="Vaffeljernet">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Denmark]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[WARTH]" c="Wartian Herkku">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Finland]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[BLONP]" c="Blondesddsl père et fils">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[France]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[BONAP]" c="Bon app'">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[France]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[DUMON]" c="Du monde entier">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[France]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[LAMAI]" c="La maison d'Asie">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[France]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[VICTE]" c="Victuailles en stock">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[France]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[VINET]" c="Vins et alcools Chevalier">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[France]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[WANDK]" c="Die Wandernde Kuh">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Germany]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[DRACD]" c="Drachenblut Delikatessen">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Germany]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[FRANK]" c="Frankenversand">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Germany]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[KOENE]" c="Königlich Essen">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Germany]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[LEHMS]" c="Lehmanns Marktstand">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Germany]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[MORGK]" c="Morgenstern Gesundkost">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Germany]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[OTTIK]" c="Ottilies Käseladen">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Germany]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[QUICK]" c="QUICK-Stop">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Germany]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[TOMSP]" c="Toms Spezialitäten">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Germany]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[HUNGO]" c="Hungry Owl All-Night Grocers">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Ireland]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[MAGAA]" c="Magazzini Alimentari Riuniti">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Italy]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[REGGC]" c="Reggiani Caseifici">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Italy]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[ANATR]" c="Ana Trujillo Emparedados y helados">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Mexico]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[ANTON]" c="Antonio Moreno Taquería">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Mexico]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[CENTC]" c="Centro comercial Moctezuma">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Mexico]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[PERIC]" c="Pericles Comidas clásicas">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Mexico]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[TORTU]" c="Tortuga Restaurante">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Mexico]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[SANTG]" c="Santé Gourmet">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Norway]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[WOLZA]" c="Wolski  Zajazd">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Poland]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[FURIB]" c="Furia Bacalhau e Frutos do Mar">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Portugal]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[PRINI]" c="Princesa Isabel Vinhos">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Portugal]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[BOLID]" c="Bólido Comidas preparadas">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Spain]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[GALED]" c="Galería del gastrónomo">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Spain]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[GODOS]" c="Godos Cocina Típica">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Spain]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[ROMEY]" c="Romero y tomillo">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Spain]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[BERGS]" c="Berglunds snabbköp">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Sweden]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[FOLKO]" c="Folk och fä HB">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Sweden]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[CHOPS]" c="Chop-suey Chinese">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Switzerland]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[RICSU]" c="Richter Supermarkt">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Switzerland]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[AROUT]" c="Around the Horn">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[UK]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[BSBEV]" c="B's Beverages">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[UK]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[EASTC]" c="Eastern Connection">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[UK]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[ISLAT]" c="Island Trading">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[UK]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[SEVES]" c="Seven Seas Imports">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[UK]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[HUNGC]" c="Hungry Coyote Import Store">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[USA]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[LONEP]" c="Lonesome Pine Restaurant">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[USA]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[OLDWO]" c="Old World Delicatessen">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[USA]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[RATTC]" c="Rattlesnake Canyon Grocery">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[USA]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[SAVEA]" c="Save-a-lot Markets">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[USA]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[SPLIR]" c="Split Rail Beer &amp; Ale">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[USA]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[THEBI]" c="The Big Cheese">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[USA]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[WHITC]" c="White Clover Markets">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[USA]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[GROSR]" c="GROSELLA-Restaurante">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Venezuela]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[HILAA]" c="HILARION-Abastos">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Venezuela]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[LILAS]" c="LILA-Supermercado">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Venezuela]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[CACTU]" c="Cactus Comidas para llevar" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Argentina]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[OCEAN]" c="Océano Atlántico Ltda." nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Argentina]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[RANCH]" c="Rancho grande" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Argentina]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[MAISD]" c="Maison Dewey" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Belgium]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[GOURL]" c="Gourmet Lanchonetes" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Brazil]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[LAUGB]" c="Laughing Bacchus Wine Cellars" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Canada]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[WILMK]" c="Wilman Kala" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Finland]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[FOLIG]" c="Folies gourmandes" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[France]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[FRANR]" c="France restauration" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[France]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[LACOR]" c="La corne d'abondance" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[France]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[PARIS]" c="Paris spécialités" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[France]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[SPECD]" c="Spécialités du monde" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[France]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[ALFKI]" c="Alfreds Futterkiste" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Germany]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[BLAUS]" c="Blauer See Delikatessen" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Germany]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[FRANS]" c="Franchi S.p.A." nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Italy]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[FISSA]" c="FISSA Fabrica Inter. Salchichas S.A." nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Spain]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[CONSH]" c="Consolidated Holdings" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[UK]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[NORTS]" c="North/South" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[UK]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[GREAL]" c="Great Lakes Food Market" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[USA]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[LAZYK]" c="Lazy K Kountry Store" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[USA]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[LETSS]" c="Let's Stop N Shop" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[USA]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[THECR]" c="The Cracker Box" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[USA]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[TRAIH]" c="Trail's Head Gourmet Provisioners" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[USA]"/>
+              </i>
+              <i n="[DIM CLIENTE].[Pais - Cliente].[Id Cliente].&amp;[LINOD]" c="LINO-Delicateses" nd="1">
+                <p n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Venezuela]"/>
+              </i>
+            </range>
+          </ranges>
+        </level>
+      </levels>
+      <selections count="1">
+        <selection n="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente].&amp;[Finland]"/>
+      </selections>
+    </olap>
+  </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData count="2">
+        <x15:slicerCacheOlapLevelName uniqueName="[DIM CLIENTE].[Pais - Cliente].[Pais Cliente]" count="1"/>
+        <x15:slicerCacheOlapLevelName uniqueName="[DIM CLIENTE].[Pais - Cliente].[Id Cliente]" count="24"/>
+      </x15:slicerCacheHideItemsWithNoData>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Pais Cliente" xr10:uid="{C610B4B0-1FDA-4EAC-BD0A-0BD8CA6D7EE1}" cache="SegmentaciónDeDatos_Pais___Cliente" caption="Pais Cliente" columnCount="4" level="1" rowHeight="241300"/>
+  <slicer name="Id Cliente" xr10:uid="{85A1223D-04B4-44F6-99CA-5BD7B7EFBF37}" cache="SegmentaciónDeDatos_Pais___Cliente" caption="Id Cliente" startItem="6" columnCount="2" level="2" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2072,6 +5382,25 @@
 </a:theme>
 </file>
 
+<file path=xl/timelineCaches/timelineCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="xr10" name="Timeline_DIM_TIEMPO" xr10:uid="{A9CABDB6-017F-4DF8-B29A-BC198945D301}" sourceName="[DIM TIEMPO].[Fecha]">
+  <pivotTables>
+    <pivotTable tabId="4" name="TablaDinámica2"/>
+  </pivotTables>
+  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="476346209" filterType="dateBetween">
+    <selection startDate="1997-09-01T00:00:00" endDate="1997-09-30T00:00:00"/>
+    <bounds startDate="1996-01-01T00:00:00" endDate="1999-01-01T00:00:00"/>
+  </state>
+</timelineCacheDefinition>
+</file>
+
+<file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <timeline name="Fecha" xr10:uid="{57C2BB66-4C83-4234-847A-AF991AE98640}" cache="Timeline_DIM_TIEMPO" caption="DIM TIEMPO" level="0" selectionLevel="2" scrollPosition="1996-01-01T00:00:00"/>
+  <timeline name="Fecha 1" xr10:uid="{02736EF1-3C7E-4E2F-918A-2C46C3C9858C}" cache="Timeline_DIM_TIEMPO" caption="DIM TIEMPO" level="2" selectionLevel="2" scrollPosition="1997-07-16T00:00:00"/>
+</timelines>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C62758-13A7-4186-B809-12C81ED581B2}">
   <dimension ref="B2:D26"/>
@@ -2294,8 +5623,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB772D4-F71D-4B89-BBE3-39BF023773A8}">
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B7:B14"/>
+      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" activeRow="9" activeCol="1" previousRow="9" previousCol="1" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="2" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,4 +5746,200 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C5EC1-7442-4FCC-9B0E-576AF3A106A1}">
+  <dimension ref="B1:C13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="194.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s" vm="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A59532-97B0-4A1D-8CBB-B08D0F54A38B}">
+  <dimension ref="B1:C12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="150.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s" vm="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{7E03D99C-DC04-49d9-9315-930204A7B6E9}">
+      <x15:timelineRefs>
+        <x15:timelineRef r:id="rId3"/>
+      </x15:timelineRefs>
+    </ext>
+  </extLst>
+</worksheet>
 </file>